--- a/veri/Kadin_Erkek_Yas_Dagilimlari_Turkiye Genelll.xlsx
+++ b/veri/Kadin_Erkek_Yas_Dagilimlari_Turkiye Genelll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUSENUR\Documents\GitHub\muy665-bahar2025-takim-R_amam_soRmam_biR_daha\veri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C665D14-69BD-4778-939B-6EFDED7A2012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF80F0-9E26-40EA-A8E0-D0395797F81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{A6048D78-C244-48EB-83DB-3DD76459F337}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6048D78-C244-48EB-83DB-3DD76459F337}"/>
   </bookViews>
   <sheets>
     <sheet name="Kadın Yaş Dağılımı" sheetId="2" r:id="rId1"/>
@@ -84,16 +84,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -435,13 +436,13 @@
   <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
@@ -455,10 +456,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
@@ -466,46 +467,46 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>464393</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>571623</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1550652</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>1790715</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>533227</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>559916</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>218652</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>232661</v>
       </c>
     </row>
@@ -517,6 +518,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x010100BBBA11C3445C8B4C9C44B67C5CCEBFA8" ma:contentTypeVersion="4" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="39d1c8070fee37e38006f7a0b231d386">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3ccf06f8-7942-444b-ba37-cf51e6f5a1ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6b94edf5178a490930a641671211d18" ns3:_="">
     <xsd:import namespace="3ccf06f8-7942-444b-ba37-cf51e6f5a1ca"/>
@@ -660,22 +676,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33213C6-9835-4399-9BDB-936757F8796C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648B7C30-B875-4535-AB2F-4CB616F6A973}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3ccf06f8-7942-444b-ba37-cf51e6f5a1ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC7EBE14-9F3C-486C-9989-29F9185D5A5D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -691,28 +716,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648B7C30-B875-4535-AB2F-4CB616F6A973}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3ccf06f8-7942-444b-ba37-cf51e6f5a1ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33213C6-9835-4399-9BDB-936757F8796C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>